--- a/Derives_de_taux/xls/CalageCourbeDesTaux.xlsx
+++ b/Derives_de_taux/xls/CalageCourbeDesTaux.xlsx
@@ -92,7 +92,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -158,13 +158,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -402,23 +402,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="82798080"/>
-        <c:axId val="62748928"/>
+        <c:axId val="80162176"/>
+        <c:axId val="95982720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82798080"/>
+        <c:axId val="80162176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62748928"/>
+        <c:crossAx val="95982720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62748928"/>
+        <c:axId val="95982720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +426,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82798080"/>
+        <c:crossAx val="80162176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -439,7 +439,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -821,7 +821,7 @@
         <v>5.4794520547945206E-3</v>
       </c>
       <c r="J2" s="8">
-        <f>C2</f>
+        <f t="shared" ref="J2:J10" si="0">C2</f>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="K2" s="9">
@@ -836,7 +836,7 @@
         <v>1.6000000004101622E-3</v>
       </c>
       <c r="N2" s="9">
-        <f>(M2-J2)*1000000</f>
+        <f t="shared" ref="N2:N10" si="1">(M2-J2)*1000000</f>
         <v>4.1016213862821171E-7</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E17" si="0">VLOOKUP(D3,$I$2:$K$35,3,FALSE)</f>
+        <f t="shared" ref="E3:E17" si="2">VLOOKUP(D3,$I$2:$K$35,3,FALSE)</f>
         <v>2.3830585940880964E-3</v>
       </c>
       <c r="F3" s="3"/>
@@ -865,14 +865,14 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J3" s="8">
-        <f>C3</f>
+        <f t="shared" si="0"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="K3" s="9">
         <v>2.3830585940880964E-3</v>
       </c>
       <c r="L3" s="7">
-        <f>EXP(-(I3+$I$2)*K3)</f>
+        <f t="shared" ref="L3:L35" si="3">EXP(-(I3+$I$2)*K3)</f>
         <v>0.99978837632396567</v>
       </c>
       <c r="M3" s="8">
@@ -880,7 +880,7 @@
         <v>2.4000000113162724E-3</v>
       </c>
       <c r="N3" s="9">
-        <f>(M3-J3)*1000000</f>
+        <f t="shared" si="1"/>
         <v>1.1316272571781916E-5</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0100915546290232E-3</v>
       </c>
       <c r="F4" s="3"/>
@@ -912,14 +912,14 @@
         <v>0.25</v>
       </c>
       <c r="J4" s="8">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="K4" s="9">
         <v>3.0100915546290232E-3</v>
       </c>
       <c r="L4" s="7">
-        <f>EXP(-(I4+$I$2)*K4)</f>
+        <f t="shared" si="3"/>
         <v>0.99923127907642573</v>
       </c>
       <c r="M4" s="8">
@@ -927,7 +927,7 @@
         <v>2.9999999811689791E-3</v>
       </c>
       <c r="N4" s="9">
-        <f>(M4-J4)*1000000</f>
+        <f t="shared" si="1"/>
         <v>-1.8831020943965715E-5</v>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>0.5</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.025115978379336E-3</v>
       </c>
       <c r="F5" s="3"/>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="7" t="str">
-        <f t="shared" ref="H5" si="1">G5&amp;"M"</f>
+        <f t="shared" ref="H5" si="4">G5&amp;"M"</f>
         <v>6M</v>
       </c>
       <c r="I5" s="7">
@@ -960,14 +960,14 @@
         <v>0.5</v>
       </c>
       <c r="J5" s="8">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K5" s="9">
         <v>4.025115978379336E-3</v>
       </c>
       <c r="L5" s="7">
-        <f>EXP(-(I5+$I$2)*K5)</f>
+        <f t="shared" si="3"/>
         <v>0.99796745500362316</v>
       </c>
       <c r="M5" s="8">
@@ -975,7 +975,7 @@
         <v>3.9999999175663577E-3</v>
       </c>
       <c r="N5" s="9">
-        <f>(M5-J5)*1000000</f>
+        <f t="shared" si="1"/>
         <v>-8.2433642377421901E-5</v>
       </c>
       <c r="O5" t="s">
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.739968083015968E-3</v>
       </c>
       <c r="F6" s="5">
@@ -1012,18 +1012,18 @@
         <v>12M</v>
       </c>
       <c r="I6" s="7">
-        <f>G6/12</f>
+        <f t="shared" ref="I6:I35" si="5">G6/12</f>
         <v>1</v>
       </c>
       <c r="J6" s="8">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="K6" s="9">
         <v>5.739968083015968E-3</v>
       </c>
       <c r="L6" s="7">
-        <f>EXP(-(I6+$I$2)*K6)</f>
+        <f t="shared" si="3"/>
         <v>0.99424520268713223</v>
       </c>
       <c r="M6" s="8">
@@ -1031,7 +1031,7 @@
         <v>5.6999997709702753E-3</v>
       </c>
       <c r="N6" s="9">
-        <f>(M6-J6)*1000000</f>
+        <f t="shared" si="1"/>
         <v>-2.2902972487276463E-4</v>
       </c>
       <c r="O6">
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.7775355281728564E-3</v>
       </c>
       <c r="F7" s="3"/>
@@ -1068,18 +1068,18 @@
         <v>24M</v>
       </c>
       <c r="I7" s="7">
-        <f>G7/12</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J7" s="8">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="K7" s="8">
         <v>4.7775355281728564E-3</v>
       </c>
       <c r="L7" s="7">
-        <f>EXP(-(I7+$I$2)*K7)</f>
+        <f t="shared" si="3"/>
         <v>0.99046450459299018</v>
       </c>
       <c r="M7" s="8">
@@ -1087,15 +1087,15 @@
         <v>4.8000000011012948E-3</v>
       </c>
       <c r="N7" s="8">
-        <f>(M7-J7)*1000000</f>
+        <f t="shared" si="1"/>
         <v>1.1012952702560419E-6</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O35" si="2">I7</f>
+        <f t="shared" ref="O7:O35" si="6">I7</f>
         <v>2</v>
       </c>
       <c r="P7" s="2">
-        <f>(L6/L7-1)*360/365</f>
+        <f t="shared" ref="P7:P35" si="7">(L6/L7-1)*360/365</f>
         <v>3.7648070092356992E-3</v>
       </c>
     </row>
@@ -1107,35 +1107,35 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D17" si="3">VALUE(LEFT(B8,LEN(B8)-1))</f>
+        <f t="shared" ref="D8:D17" si="8">VALUE(LEFT(B8,LEN(B8)-1))</f>
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.3790533675457638E-3</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="7">
-        <f t="shared" ref="G8:G35" si="4">G7+12</f>
+        <f t="shared" ref="G8:G35" si="9">G7+12</f>
         <v>36</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f t="shared" ref="H8:H35" si="5">G8&amp;"M"</f>
+        <f t="shared" ref="H8:H35" si="10">G8&amp;"M"</f>
         <v>36M</v>
       </c>
       <c r="I8" s="7">
-        <f>G8/12</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J8" s="8">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="K8" s="8">
         <v>6.3790533675457638E-3</v>
       </c>
       <c r="L8" s="7">
-        <f>EXP(-(I8+$I$2)*K8)</f>
+        <f t="shared" si="3"/>
         <v>0.98101050224692654</v>
       </c>
       <c r="M8" s="8">
@@ -1143,15 +1143,15 @@
         <v>6.3999998658743548E-3</v>
       </c>
       <c r="N8" s="8">
-        <f>(M8-J8)*1000000</f>
+        <f t="shared" si="1"/>
         <v>-1.3412564548592742E-4</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P8" s="2">
-        <f>(L7/L8-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>9.5049904595861066E-3</v>
       </c>
     </row>
@@ -1163,35 +1163,35 @@
         <v>8.6E-3</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5903428879606711E-3</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>48M</v>
       </c>
       <c r="I9" s="7">
-        <f>G9/12</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J9" s="8">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>8.6E-3</v>
       </c>
       <c r="K9" s="8">
         <v>8.5903428879606711E-3</v>
       </c>
       <c r="L9" s="7">
-        <f>EXP(-(I9+$I$2)*K9)</f>
+        <f t="shared" si="3"/>
         <v>0.96617679692570757</v>
       </c>
       <c r="M9" s="8">
@@ -1199,15 +1199,15 @@
         <v>8.600000002268432E-3</v>
       </c>
       <c r="N9" s="8">
-        <f>(M9-J9)*1000000</f>
+        <f t="shared" si="1"/>
         <v>2.2684319700427835E-6</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P9" s="2">
-        <f>(L8/L9-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>1.5142677742847489E-2</v>
       </c>
     </row>
@@ -1219,35 +1219,35 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0816915765912047E-2</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60M</v>
       </c>
       <c r="I10" s="7">
-        <f>G10/12</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J10" s="8">
-        <f>C10</f>
+        <f t="shared" si="0"/>
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="K10" s="8">
         <v>1.0816915765912047E-2</v>
       </c>
       <c r="L10" s="7">
-        <f>EXP(-(I10+$I$2)*K10)</f>
+        <f t="shared" si="3"/>
         <v>0.94729582857341466</v>
       </c>
       <c r="M10" s="8">
@@ -1255,15 +1255,15 @@
         <v>1.0799999999676834E-2</v>
       </c>
       <c r="N10" s="8">
-        <f>(M10-J10)*1000000</f>
+        <f t="shared" si="1"/>
         <v>-3.2316684051014732E-7</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P10" s="2">
-        <f>(L9/L10-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>1.9658404891586122E-2</v>
       </c>
     </row>
@@ -1275,24 +1275,24 @@
         <v>1.43E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4401367916463135E-2</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>72M</v>
       </c>
       <c r="I11" s="7">
-        <f>G11/12</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J11" s="3"/>
@@ -1301,15 +1301,15 @@
         <v>1.2609141841187591E-2</v>
       </c>
       <c r="L11" s="10">
-        <f>EXP(-(I11+$I$2)*K11)</f>
+        <f t="shared" si="3"/>
         <v>0.92707209668825952</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P11" s="2">
-        <f>(L10/L11-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.151579638015803E-2</v>
       </c>
     </row>
@@ -1321,24 +1321,24 @@
         <v>1.95E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9899432308903741E-2</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>84M</v>
       </c>
       <c r="I12" s="7">
-        <f>G12/12</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="J12" s="8">
@@ -1349,7 +1349,7 @@
         <v>1.4401367916463135E-2</v>
       </c>
       <c r="L12" s="7">
-        <f>EXP(-(I12+$I$2)*K12)</f>
+        <f t="shared" si="3"/>
         <v>0.90403383877232124</v>
       </c>
       <c r="M12" s="8">
@@ -1361,11 +1361,11 @@
         <v>-2.4032859036182685E-8</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P12" s="2">
-        <f>(L11/L12-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.5134750898931791E-2</v>
       </c>
     </row>
@@ -1377,24 +1377,24 @@
         <v>2.0199999999999999E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0584491988279701E-2</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>96M</v>
       </c>
       <c r="I13" s="7">
-        <f>G13/12</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="J13" s="3"/>
@@ -1403,15 +1403,15 @@
         <v>1.6234056047276672E-2</v>
       </c>
       <c r="L13" s="10">
-        <f>EXP(-(I13+$I$2)*K13)</f>
+        <f t="shared" si="3"/>
         <v>0.87812932420553214</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P13" s="2">
-        <f>(L12/L13-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.9095552897035984E-2</v>
       </c>
     </row>
@@ -1423,24 +1423,24 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1731936090144319E-2</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>108M</v>
       </c>
       <c r="I14" s="7">
-        <f>G14/12</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="J14" s="8"/>
@@ -1449,17 +1449,17 @@
         <v>1.8066744178090205E-2</v>
       </c>
       <c r="L14" s="10">
-        <f>EXP(-(I14+$I$2)*K14)</f>
+        <f t="shared" si="3"/>
         <v>0.84984636451728279</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="P14" s="2">
-        <f>(L13/L14-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.2824193935506882E-2</v>
       </c>
     </row>
@@ -1471,24 +1471,24 @@
         <v>2.29E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3504360678174029E-2</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>120M</v>
       </c>
       <c r="I15" s="7">
-        <f>G15/12</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J15" s="8">
@@ -1499,7 +1499,7 @@
         <v>1.9899432308903741E-2</v>
       </c>
       <c r="L15" s="7">
-        <f>EXP(-(I15+$I$2)*K15)</f>
+        <f t="shared" si="3"/>
         <v>0.81946518815319969</v>
       </c>
       <c r="M15" s="8">
@@ -1511,11 +1511,11 @@
         <v>-9.3600682760097698E-6</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="P15" s="2">
-        <f>(L14/L15-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.6566526924073577E-2</v>
       </c>
     </row>
@@ -1527,24 +1527,24 @@
         <v>2.4299999999999999E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5180751735762685E-2</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>132</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>132M</v>
       </c>
       <c r="I16" s="7">
-        <f>G16/12</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="J16" s="3"/>
@@ -1553,15 +1553,15 @@
         <v>2.0241962148591721E-2</v>
       </c>
       <c r="L16" s="10">
-        <f>EXP(-(I16+$I$2)*K16)</f>
+        <f t="shared" si="3"/>
         <v>0.80029689733377996</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P16" s="2">
-        <f>(L15/L16-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.3623372221123727E-2</v>
       </c>
     </row>
@@ -1573,24 +1573,24 @@
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7037687371840848E-2</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>144</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>144M</v>
       </c>
       <c r="I17" s="7">
-        <f>G17/12</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="J17" s="8">
@@ -1601,7 +1601,7 @@
         <v>2.0584491988279701E-2</v>
       </c>
       <c r="L17" s="7">
-        <f>EXP(-(I17+$I$2)*K17)</f>
+        <f t="shared" si="3"/>
         <v>0.78104173271451427</v>
       </c>
       <c r="M17" s="8">
@@ -1613,26 +1613,26 @@
         <v>-2.5169087994325601E-4</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="P17" s="2">
-        <f>(L16/L17-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.4315467977511093E-2</v>
       </c>
     </row>
     <row r="18" spans="2:16">
       <c r="F18" s="5"/>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>156M</v>
       </c>
       <c r="I18" s="7">
-        <f>G18/12</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="J18" s="3"/>
@@ -1641,17 +1641,17 @@
         <v>2.0966973355567908E-2</v>
       </c>
       <c r="L18" s="10">
-        <f>EXP(-(I18+$I$2)*K18)</f>
+        <f t="shared" si="3"/>
         <v>0.76133215762752271</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
       <c r="O18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="P18" s="2">
-        <f>(L17/L18-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.553363957237224E-2</v>
       </c>
     </row>
@@ -1659,15 +1659,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>168</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>168M</v>
       </c>
       <c r="I19" s="7">
-        <f>G19/12</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="J19" s="3"/>
@@ -1676,30 +1676,30 @@
         <v>2.1349454722856112E-2</v>
       </c>
       <c r="L19" s="10">
-        <f>EXP(-(I19+$I$2)*K19)</f>
+        <f t="shared" si="3"/>
         <v>0.74155247630700982</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="P19" s="2">
-        <f>(L18/L19-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.630795177035981E-2</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="F20" s="5"/>
       <c r="G20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>180M</v>
       </c>
       <c r="I20" s="7">
-        <f>G20/12</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="J20" s="8">
@@ -1710,7 +1710,7 @@
         <v>2.1731936090144319E-2</v>
       </c>
       <c r="L20" s="7">
-        <f>EXP(-(I20+$I$2)*K20)</f>
+        <f t="shared" si="3"/>
         <v>0.72173436705352545</v>
       </c>
       <c r="M20" s="8">
@@ -1722,26 +1722,26 @@
         <v>-6.042168605724374E-4</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="P20" s="2">
-        <f>(L19/L20-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.7082856514932769E-2</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="F21" s="3"/>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>192M</v>
       </c>
       <c r="I21" s="7">
-        <f>G21/12</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="J21" s="3"/>
@@ -1750,30 +1750,30 @@
         <v>2.2086421007750261E-2</v>
       </c>
       <c r="L21" s="10">
-        <f>EXP(-(I21+$I$2)*K21)</f>
+        <f t="shared" si="3"/>
         <v>0.70222335390233004</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="P21" s="2">
-        <f>(L20/L21-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.7404014536827601E-2</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="F22" s="5"/>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>204</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>204M</v>
       </c>
       <c r="I22" s="7">
-        <f>G22/12</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="J22" s="3"/>
@@ -1782,30 +1782,30 @@
         <v>2.2440905925356205E-2</v>
       </c>
       <c r="L22" s="10">
-        <f>EXP(-(I22+$I$2)*K22)</f>
+        <f t="shared" si="3"/>
         <v>0.68275556718612218</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="P22" s="2">
-        <f>(L21/L22-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.8122955899915012E-2</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="F23" s="3"/>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>216M</v>
       </c>
       <c r="I23" s="7">
-        <f>G23/12</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="J23" s="3"/>
@@ -1814,30 +1814,30 @@
         <v>2.2795390842962147E-2</v>
       </c>
       <c r="L23" s="10">
-        <f>EXP(-(I23+$I$2)*K23)</f>
+        <f t="shared" si="3"/>
         <v>0.66335702039935218</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="P23" s="2">
-        <f>(L22/L23-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.8842407151468338E-2</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="F24" s="5"/>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>228</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>228M</v>
       </c>
       <c r="I24" s="7">
-        <f>G24/12</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="J24" s="3"/>
@@ -1846,30 +1846,30 @@
         <v>2.3149875760568088E-2</v>
       </c>
       <c r="L24" s="10">
-        <f>EXP(-(I24+$I$2)*K24)</f>
+        <f t="shared" si="3"/>
         <v>0.64405285189509964</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="P24" s="2">
-        <f>(L23/L24-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>2.9562368653111515E-2</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="F25" s="3"/>
       <c r="G25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="H25" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>240M</v>
       </c>
       <c r="I25" s="7">
-        <f>G25/12</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J25" s="8">
@@ -1880,7 +1880,7 @@
         <v>2.3504360678174029E-2</v>
       </c>
       <c r="L25" s="7">
-        <f>EXP(-(I25+$I$2)*K25)</f>
+        <f t="shared" si="3"/>
         <v>0.62486727950930343</v>
       </c>
       <c r="M25" s="8">
@@ -1892,11 +1892,11 @@
         <v>-3.8919735489972851E-6</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="P25" s="2">
-        <f>(L24/L25-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.0282840766724932E-2</v>
       </c>
     </row>
@@ -1907,11 +1907,11 @@
         <v>252</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>252M</v>
       </c>
       <c r="I26" s="7">
-        <f>G26/12</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="J26" s="3"/>
@@ -1920,30 +1920,30 @@
         <v>2.3839638889691761E-2</v>
       </c>
       <c r="L26" s="10">
-        <f>EXP(-(I26+$I$2)*K26)</f>
+        <f t="shared" si="3"/>
         <v>0.60606802614885413</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="P26" s="2">
-        <f>(L25/L26-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.0593478853575252E-2</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="F27" s="3"/>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>264M</v>
       </c>
       <c r="I27" s="7">
-        <f>G27/12</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="J27" s="3"/>
@@ -1952,30 +1952,30 @@
         <v>2.4174917101209489E-2</v>
       </c>
       <c r="L27" s="10">
-        <f>EXP(-(I27+$I$2)*K27)</f>
+        <f t="shared" si="3"/>
         <v>0.5874403080025028</v>
       </c>
       <c r="O27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="P27" s="2">
-        <f>(L26/L27-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.1275592898351495E-2</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="F28" s="5"/>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>276M</v>
       </c>
       <c r="I28" s="7">
-        <f>G28/12</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="J28" s="3"/>
@@ -1984,30 +1984,30 @@
         <v>2.4510195312727221E-2</v>
       </c>
       <c r="L28" s="10">
-        <f>EXP(-(I28+$I$2)*K28)</f>
+        <f t="shared" si="3"/>
         <v>0.56900344258730706</v>
       </c>
       <c r="O28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="P28" s="2">
-        <f>(L27/L28-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.1958164492471249E-2</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="F29" s="3"/>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>288</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>288M</v>
       </c>
       <c r="I29" s="7">
-        <f>G29/12</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="J29" s="3"/>
@@ -2016,30 +2016,30 @@
         <v>2.4845473524244953E-2</v>
       </c>
       <c r="L29" s="10">
-        <f>EXP(-(I29+$I$2)*K29)</f>
+        <f t="shared" si="3"/>
         <v>0.55077576971998743</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="P29" s="2">
-        <f>(L28/L29-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.2641193942849332E-2</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="F30" s="5"/>
       <c r="G30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>300M</v>
       </c>
       <c r="I30" s="7">
-        <f>G30/12</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="J30" s="8">
@@ -2050,7 +2050,7 @@
         <v>2.5180751735762685E-2</v>
       </c>
       <c r="L30" s="7">
-        <f>EXP(-(I30+$I$2)*K30)</f>
+        <f t="shared" si="3"/>
         <v>0.53277463380407075</v>
       </c>
       <c r="M30" s="8">
@@ -2062,26 +2062,26 @@
         <v>-1.5974131739593389E-6</v>
       </c>
       <c r="O30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="P30" s="2">
-        <f>(L29/L30-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.3324681556607741E-2</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="F31" s="3"/>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>312</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>312M</v>
       </c>
       <c r="I31" s="7">
-        <f>G31/12</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="J31" s="3"/>
@@ -2090,30 +2090,30 @@
         <v>2.5552138862978316E-2</v>
       </c>
       <c r="L31" s="10">
-        <f>EXP(-(I31+$I$2)*K31)</f>
+        <f t="shared" si="3"/>
         <v>0.5145329813049514</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="P31" s="2">
-        <f>(L30/L31-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.4967178980084106E-2</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="F32" s="5"/>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>324</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>324M</v>
       </c>
       <c r="I32" s="7">
-        <f>G32/12</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="J32" s="3"/>
@@ -2122,30 +2122,30 @@
         <v>2.592352599019395E-2</v>
       </c>
       <c r="L32" s="10">
-        <f>EXP(-(I32+$I$2)*K32)</f>
+        <f t="shared" si="3"/>
         <v>0.4965469448265179</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="P32" s="2">
-        <f>(L31/L32-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.5726032758660736E-2</v>
       </c>
     </row>
     <row r="33" spans="6:16">
       <c r="F33" s="3"/>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>336</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>336M</v>
       </c>
       <c r="I33" s="7">
-        <f>G33/12</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="J33" s="3"/>
@@ -2154,30 +2154,30 @@
         <v>2.6294913117409585E-2</v>
       </c>
       <c r="L33" s="10">
-        <f>EXP(-(I33+$I$2)*K33)</f>
+        <f t="shared" si="3"/>
         <v>0.47883383142930008</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="P33" s="2">
-        <f>(L32/L33-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.6485450403673868E-2</v>
       </c>
     </row>
     <row r="34" spans="6:16">
       <c r="F34" s="5"/>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>348</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>348M</v>
       </c>
       <c r="I34" s="7">
-        <f>G34/12</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="J34" s="3"/>
@@ -2186,41 +2186,41 @@
         <v>2.6666300244625216E-2</v>
       </c>
       <c r="L34" s="10">
-        <f>EXP(-(I34+$I$2)*K34)</f>
+        <f t="shared" si="3"/>
         <v>0.46140973999596541</v>
       </c>
       <c r="O34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="P34" s="2">
-        <f>(L33/L34-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.7245432334104302E-2</v>
       </c>
     </row>
     <row r="35" spans="6:16">
       <c r="F35" s="3"/>
       <c r="G35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
       <c r="H35" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>360M</v>
       </c>
       <c r="I35" s="7">
-        <f>G35/12</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J35" s="8">
         <f>C17</f>
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="9">
         <v>2.7037687371840848E-2</v>
       </c>
       <c r="L35" s="7">
-        <f>EXP(-(I35+$I$2)*K35)</f>
+        <f t="shared" si="3"/>
         <v>0.44428955737257286</v>
       </c>
       <c r="M35" s="8">
@@ -2232,11 +2232,11 @@
         <v>-3.9545360042136934E-5</v>
       </c>
       <c r="O35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="P35" s="2">
-        <f>(L34/L35-1)*360/365</f>
+        <f t="shared" si="7"/>
         <v>3.800597896924468E-2</v>
       </c>
     </row>

--- a/Derives_de_taux/xls/CalageCourbeDesTaux.xlsx
+++ b/Derives_de_taux/xls/CalageCourbeDesTaux.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="192" yWindow="84" windowWidth="12084" windowHeight="7104"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +161,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -166,6 +173,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -402,23 +410,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80162176"/>
-        <c:axId val="95982720"/>
+        <c:axId val="93350912"/>
+        <c:axId val="94659328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80162176"/>
+        <c:axId val="93350912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95982720"/>
+        <c:crossAx val="94659328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95982720"/>
+        <c:axId val="94659328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +434,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80162176"/>
+        <c:crossAx val="93350912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -439,7 +447,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -765,10 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="B1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1291,7 +1300,7 @@
         <f t="shared" si="10"/>
         <v>72M</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="11">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -1393,7 +1402,7 @@
         <f t="shared" si="10"/>
         <v>96M</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="11">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -1439,7 +1448,7 @@
         <f t="shared" si="10"/>
         <v>108M</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="11">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -1543,7 +1552,7 @@
         <f t="shared" si="10"/>
         <v>132M</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="11">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1631,7 +1640,7 @@
         <f t="shared" si="10"/>
         <v>156M</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="11">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
@@ -1666,7 +1675,7 @@
         <f t="shared" si="10"/>
         <v>168M</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="11">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -1740,7 +1749,7 @@
         <f t="shared" si="10"/>
         <v>192M</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="11">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -1772,7 +1781,7 @@
         <f t="shared" si="10"/>
         <v>204M</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="11">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
@@ -1804,7 +1813,7 @@
         <f t="shared" si="10"/>
         <v>216M</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="11">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -1836,7 +1845,7 @@
         <f t="shared" si="10"/>
         <v>228M</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="11">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
@@ -1910,7 +1919,7 @@
         <f t="shared" si="10"/>
         <v>252M</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="11">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
@@ -1942,7 +1951,7 @@
         <f t="shared" si="10"/>
         <v>264M</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="11">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
@@ -1974,7 +1983,7 @@
         <f t="shared" si="10"/>
         <v>276M</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="11">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
@@ -2006,7 +2015,7 @@
         <f t="shared" si="10"/>
         <v>288M</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="11">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -2080,7 +2089,7 @@
         <f t="shared" si="10"/>
         <v>312M</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="11">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
@@ -2112,7 +2121,7 @@
         <f t="shared" si="10"/>
         <v>324M</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="11">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -2144,7 +2153,7 @@
         <f t="shared" si="10"/>
         <v>336M</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="11">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -2176,7 +2185,7 @@
         <f t="shared" si="10"/>
         <v>348M</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="11">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -2433,6 +2442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Derives_de_taux/xls/CalageCourbeDesTaux.xlsx
+++ b/Derives_de_taux/xls/CalageCourbeDesTaux.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="12084" windowHeight="7104"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="9612" windowHeight="7524"/>
   </bookViews>
   <sheets>
     <sheet name="Callage" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>2D</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Diff</t>
-  </si>
-  <si>
-    <t>Fwd 12M</t>
   </si>
 </sst>
 </file>
@@ -94,7 +91,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,20 +128,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,7 +169,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -183,309 +179,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Callage!$P$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fwd 12M</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Callage!$O$6:$O$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Callage!$P$6:$P$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5.6999997709702753E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7648070092356992E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.5049904595861066E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5142677742847489E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9658404891586122E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.151579638015803E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5134750898931791E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.9095552897035984E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2824193935506882E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6566526924073577E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3623372221123727E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4315467977511093E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.553363957237224E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.630795177035981E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7082856514932769E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.7404014536827601E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.8122955899915012E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8842407151468338E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.9562368653111515E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.0282840766724932E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.0593478853575252E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.1275592898351495E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.1958164492471249E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.2641193942849332E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.3324681556607741E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.4967178980084106E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5726032758660736E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6485450403673868E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.7245432334104302E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.800597896924468E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="93350912"/>
-        <c:axId val="94659328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="93350912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94659328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="94659328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93350912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,16 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Feuil1"/>
   <dimension ref="B1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -810,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="D2">
         <f>I2</f>
@@ -818,7 +510,7 @@
       </c>
       <c r="E2" s="3">
         <f>VLOOKUP(D2,$I$2:$K$35,3,FALSE)</f>
-        <v>1.6222150127941923E-3</v>
+        <v>-2.3319593430685586E-3</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="7"/>
@@ -831,22 +523,22 @@
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:J10" si="0">C2</f>
-        <v>1.6000000000000001E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="K2" s="9">
-        <v>1.6222150127941923E-3</v>
+        <v>-2.3319593430685586E-3</v>
       </c>
       <c r="L2" s="7">
         <f>EXP(-I2*K2)</f>
-        <v>0.99999111119012052</v>
+        <v>1.0000127779410513</v>
       </c>
       <c r="M2" s="8">
         <f>(1/L2-1)/I2*360/365</f>
-        <v>1.6000000004101622E-3</v>
+        <v>-2.2999999999551157E-3</v>
       </c>
       <c r="N2" s="9">
         <f t="shared" ref="N2:N10" si="1">(M2-J2)*1000000</f>
-        <v>4.1016213862821171E-7</v>
+        <v>4.4884235217423907E-8</v>
       </c>
     </row>
     <row r="3" spans="2:16">
@@ -854,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="D3">
         <f>I3</f>
@@ -862,7 +554,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E17" si="2">VLOOKUP(D3,$I$2:$K$35,3,FALSE)</f>
-        <v>2.3830585940880964E-3</v>
+        <v>-2.3321579862787402E-3</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
@@ -875,22 +567,22 @@
       </c>
       <c r="J3" s="8">
         <f t="shared" si="0"/>
-        <v>2.3999999999999998E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="K3" s="9">
-        <v>2.3830585940880964E-3</v>
+        <v>-2.3321579862787402E-3</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" ref="L3:L35" si="3">EXP(-(I3+$I$2)*K3)</f>
-        <v>0.99978837632396567</v>
+        <v>1.0002071468986831</v>
       </c>
       <c r="M3" s="8">
         <f>($L$2/L3-1)/I3*360/365</f>
-        <v>2.4000000113162724E-3</v>
+        <v>-2.2999999921884517E-3</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" si="1"/>
-        <v>1.1316272571781916E-5</v>
+        <v>7.8115482832208372E-6</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -898,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="D4">
         <f>I4</f>
@@ -906,7 +598,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="2"/>
-        <v>3.0100915546290232E-3</v>
+        <v>-1.6377664481033417E-3</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7">
@@ -922,22 +614,22 @@
       </c>
       <c r="J4" s="8">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="K4" s="9">
-        <v>3.0100915546290232E-3</v>
+        <v>-1.6377664481033417E-3</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" si="3"/>
-        <v>0.99923127907642573</v>
+        <v>1.0004185032228037</v>
       </c>
       <c r="M4" s="8">
         <f>($L$2/L4-1)/I4*360/365</f>
-        <v>2.9999999811689791E-3</v>
+        <v>-1.5999999995654681E-3</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" si="1"/>
-        <v>-1.8831020943965715E-5</v>
+        <v>4.3453196769960289E-7</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -945,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="D5">
         <f>I5</f>
@@ -953,7 +645,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="2"/>
-        <v>4.025115978379336E-3</v>
+        <v>-1.0284312082783202E-3</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="7">
@@ -970,36 +662,31 @@
       </c>
       <c r="J5" s="8">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="K5" s="9">
-        <v>4.025115978379336E-3</v>
+        <v>-1.0284312082783202E-3</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="3"/>
-        <v>0.99796745500362316</v>
+        <v>1.000519985989504</v>
       </c>
       <c r="M5" s="8">
         <f>($L$2/L5-1)/I5*360/365</f>
-        <v>3.9999999175663577E-3</v>
+        <v>-9.9999999999932413E-4</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="1"/>
-        <v>-8.2433642377421901E-5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>6.7589163432746346E-10</v>
+      </c>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>5.7000000000000002E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="D6">
         <f>I6</f>
@@ -1007,11 +694,9 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="2"/>
-        <v>5.739968083015968E-3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
+        <v>-9.2064978459862625E-4</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="7">
         <f>G5+6</f>
         <v>12</v>
@@ -1026,38 +711,31 @@
       </c>
       <c r="J6" s="8">
         <f t="shared" si="0"/>
-        <v>5.7000000000000002E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="K6" s="9">
-        <v>5.739968083015968E-3</v>
+        <v>-9.2064978459862625E-4</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="3"/>
-        <v>0.99424520268713223</v>
+        <v>1.0009261230282884</v>
       </c>
       <c r="M6" s="8">
         <f>($L$2/L6-1)/I6*360/365</f>
-        <v>5.6999997709702753E-3</v>
+        <v>-8.9999999997425017E-4</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="1"/>
-        <v>-2.2902972487276463E-4</v>
-      </c>
-      <c r="O6">
-        <f>I6</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <f>(L2/L6-1)*360/365</f>
-        <v>5.6999997709702753E-3</v>
-      </c>
+        <v>2.574980159653073E-8</v>
+      </c>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="D7">
         <f>VALUE(LEFT(B7,LEN(B7)-1))</f>
@@ -1065,7 +743,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
-        <v>4.7775355281728564E-3</v>
+        <v>-3.2912434341054986E-3</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7">
@@ -1082,54 +760,47 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>4.7999999999999996E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="K7" s="8">
-        <v>4.7775355281728564E-3</v>
+        <v>-3.2912434341054986E-3</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="3"/>
-        <v>0.99046450459299018</v>
-      </c>
-      <c r="M7" s="8">
-        <f>($L$2-L7)/SUM($L$6:L7)</f>
-        <v>4.8000000011012948E-3</v>
+        <v>1.0066223525246056</v>
+      </c>
+      <c r="M7" s="11">
+        <f>($L$2-L7)/SUM($L$2:L7)</f>
+        <v>-1.0999995015548093E-3</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="1"/>
-        <v>1.1012952702560419E-6</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ref="O7:O35" si="6">I7</f>
-        <v>2</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" ref="P7:P35" si="7">(L6/L7-1)*360/365</f>
-        <v>3.7648070092356992E-3</v>
-      </c>
+        <v>4.9844519072091142E-4</v>
+      </c>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>6.4000000000000003E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D17" si="8">VALUE(LEFT(B8,LEN(B8)-1))</f>
+        <f t="shared" ref="D8:D17" si="6">VALUE(LEFT(B8,LEN(B8)-1))</f>
         <v>3</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="2"/>
-        <v>6.3790533675457638E-3</v>
+        <v>-2.7942244646316098E-3</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="7">
-        <f t="shared" ref="G8:G35" si="9">G7+12</f>
+        <f t="shared" ref="G8:G35" si="7">G7+12</f>
         <v>36</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f t="shared" ref="H8:H35" si="10">G8&amp;"M"</f>
+        <f t="shared" ref="H8:H35" si="8">G8&amp;"M"</f>
         <v>36M</v>
       </c>
       <c r="I8" s="7">
@@ -1138,54 +809,47 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>6.4000000000000003E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="K8" s="8">
-        <v>6.3790533675457638E-3</v>
+        <v>-2.7942244646316098E-3</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="3"/>
-        <v>0.98101050224692654</v>
-      </c>
-      <c r="M8" s="8">
-        <f>($L$2-L8)/SUM($L$6:L8)</f>
-        <v>6.3999998658743548E-3</v>
+        <v>1.008433346202795</v>
+      </c>
+      <c r="M8" s="11">
+        <f>($L$2-L8)/SUM($L$2:L8)</f>
+        <v>-1.1999999969751892E-3</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="1"/>
-        <v>-1.3412564548592742E-4</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="7"/>
-        <v>9.5049904595861066E-3</v>
-      </c>
+        <v>3.0248106536873154E-6</v>
+      </c>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>8.6E-3</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="D9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>8.5903428879606711E-3</v>
+        <v>-6.0310516940650276E-4</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>48M</v>
       </c>
       <c r="I9" s="7">
@@ -1194,54 +858,47 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>8.6E-3</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="K9" s="8">
-        <v>8.5903428879606711E-3</v>
+        <v>-6.0310516940650276E-4</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="3"/>
-        <v>0.96617679692570757</v>
-      </c>
-      <c r="M9" s="8">
-        <f>($L$2-L9)/SUM($L$6:L9)</f>
-        <v>8.600000002268432E-3</v>
+        <v>1.0024186455790078</v>
+      </c>
+      <c r="M9" s="11">
+        <f>($L$2-L9)/SUM($L$2:L9)</f>
+        <v>-2.9999999670063664E-4</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="1"/>
-        <v>2.2684319700427835E-6</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="7"/>
-        <v>1.5142677742847489E-2</v>
-      </c>
+        <v>3.2993633324561455E-6</v>
+      </c>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0800000000000001E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>1.0816915765912047E-2</v>
+        <v>1.4430457071467966E-3</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>60M</v>
       </c>
       <c r="I10" s="7">
@@ -1250,100 +907,86 @@
       </c>
       <c r="J10" s="8">
         <f t="shared" si="0"/>
-        <v>1.0800000000000001E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="K10" s="8">
-        <v>1.0816915765912047E-2</v>
+        <v>1.4430457071467966E-3</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="3"/>
-        <v>0.94729582857341466</v>
-      </c>
-      <c r="M10" s="8">
-        <f>($L$2-L10)/SUM($L$6:L10)</f>
-        <v>1.0799999999676834E-2</v>
+        <v>0.99280288851235754</v>
+      </c>
+      <c r="M10" s="11">
+        <f>($L$2-L10)/SUM($L$2:L10)</f>
+        <v>8.0000000141743533E-4</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="1"/>
-        <v>-3.2316684051014732E-7</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="7"/>
-        <v>1.9658404891586122E-2</v>
-      </c>
+        <v>1.4174352880660934E-6</v>
+      </c>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>1.43E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>1.4401367916463135E-2</v>
+        <v>5.2547975878970135E-3</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>72M</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="7">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4">
         <f>FORECAST(I11,$E$10:$E$11,$D$10:$D$11)</f>
-        <v>1.2609141841187591E-2</v>
+        <v>3.3489216475219054E-3</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="3"/>
-        <v>0.92707209668825952</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="7"/>
-        <v>2.151579638015803E-2</v>
-      </c>
+        <v>0.98008901467566412</v>
+      </c>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>1.95E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>1.9899432308903741E-2</v>
+        <v>9.8008287398685268E-3</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>84M</v>
       </c>
       <c r="I12" s="7">
@@ -1352,148 +995,127 @@
       </c>
       <c r="J12" s="8">
         <f>C11</f>
-        <v>1.43E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="K12" s="9">
-        <v>1.4401367916463135E-2</v>
+        <v>5.2547975878970135E-3</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="3"/>
-        <v>0.90403383877232124</v>
-      </c>
-      <c r="M12" s="8">
-        <f>($L$2-L12)/SUM($L$6:L12)</f>
-        <v>1.4299999999975967E-2</v>
+        <v>0.96385696057568315</v>
+      </c>
+      <c r="M12" s="11">
+        <f>($L$2-L12)/SUM($L$2:L12)</f>
+        <v>3.3000001648704732E-3</v>
       </c>
       <c r="N12" s="8">
         <f>(M12-J12)*1000000</f>
-        <v>-2.4032859036182685E-8</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="7"/>
-        <v>2.5134750898931791E-2</v>
-      </c>
+        <v>1.6487047317659265E-4</v>
+      </c>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0199999999999999E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="D13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>2.0584491988279701E-2</v>
+        <v>1.2056060765214821E-2</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>96M</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4">
         <f>FORECAST(I13,$E$11:$E$12,$D$11:$D$12)</f>
-        <v>1.6234056047276672E-2</v>
+        <v>6.7701413052208507E-3</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="3"/>
-        <v>0.87812932420553214</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="7"/>
-        <v>2.9095552897035984E-2</v>
-      </c>
+        <v>0.94724431838972778</v>
+      </c>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>2.1299999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
-        <v>2.1731936090144319E-2</v>
+        <v>1.4231757578673027E-2</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>108M</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="7">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="4">
         <f>FORECAST(I14,$E$11:$E$12,$D$11:$D$12)</f>
-        <v>1.8066744178090205E-2</v>
+        <v>8.2854850225446888E-3</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="3"/>
-        <v>0.84984636451728279</v>
+        <v>0.92810095432855577</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
-      <c r="O14">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="7"/>
-        <v>3.2824193935506882E-2</v>
-      </c>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>2.29E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>2.3504360678174029E-2</v>
+        <v>1.5447189080385164E-2</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>120M</v>
       </c>
       <c r="I15" s="7">
@@ -1502,100 +1124,86 @@
       </c>
       <c r="J15" s="8">
         <f>C12</f>
-        <v>1.95E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="K15" s="9">
-        <v>1.9899432308903741E-2</v>
+        <v>9.8008287398685268E-3</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="3"/>
-        <v>0.81946518815319969</v>
-      </c>
-      <c r="M15" s="8">
-        <f>($L$2-L15)/SUM($L$6:L15)</f>
-        <v>1.9499999990639932E-2</v>
+        <v>0.90659270181372509</v>
+      </c>
+      <c r="M15" s="11">
+        <f>($L$2-L15)/SUM($L$2:L15)</f>
+        <v>6.8000003809427778E-3</v>
       </c>
       <c r="N15" s="8">
         <f>(M15-J15)*1000000</f>
-        <v>-9.3600682760097698E-6</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="7"/>
-        <v>3.6566526924073577E-2</v>
-      </c>
+        <v>3.8094277819006317E-4</v>
+      </c>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>2.4299999999999999E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>2.5180751735762685E-2</v>
+        <v>1.5495191040942184E-2</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>132M</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="7">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="4">
         <f>FORECAST(I16,$E$12:$E$13,$D$12:$D$13)</f>
-        <v>2.0241962148591721E-2</v>
+        <v>1.0928444752541674E-2</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="3"/>
-        <v>0.80029689733377996</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="7"/>
-        <v>2.3623372221123727E-2</v>
-      </c>
+        <v>0.88667854072681329</v>
+      </c>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>2.5700000000000001E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>2.7037687371840848E-2</v>
+        <v>1.5159581323682924E-2</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>144M</v>
       </c>
       <c r="I17" s="7">
@@ -1604,107 +1212,86 @@
       </c>
       <c r="J17" s="8">
         <f>C13</f>
-        <v>2.0199999999999999E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="K17" s="9">
-        <v>2.0584491988279701E-2</v>
+        <v>1.2056060765214821E-2</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" si="3"/>
-        <v>0.78104173271451427</v>
-      </c>
-      <c r="M17" s="8">
-        <f>($L$2-L17)/SUM($L$6:L17)</f>
-        <v>2.0199999748309119E-2</v>
+        <v>0.86524827527914283</v>
+      </c>
+      <c r="M17" s="11">
+        <f>($L$2-L17)/SUM($L$2:L17)</f>
+        <v>8.7000001033829197E-3</v>
       </c>
       <c r="N17" s="8">
         <f>(M17-J17)*1000000</f>
-        <v>-2.5169087994325601E-4</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="7"/>
-        <v>2.4315467977511093E-2</v>
-      </c>
+        <v>1.0338292028011509E-4</v>
+      </c>
+      <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16">
       <c r="F18" s="5"/>
       <c r="G18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>156</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>156M</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="7">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="4">
         <f>FORECAST(I18,$E$13:$E$14,$D$13:$D$14)</f>
-        <v>2.0966973355567908E-2</v>
+        <v>1.2781293036367556E-2</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="3"/>
-        <v>0.76133215762752271</v>
+        <v>0.84685410866350586</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
-      <c r="O18">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="7"/>
-        <v>2.553363957237224E-2</v>
-      </c>
+      <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16">
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>168</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>168M</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="7">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4">
         <f>FORECAST(I19,$E$13:$E$14,$D$13:$D$14)</f>
-        <v>2.1349454722856112E-2</v>
+        <v>1.3506525307520291E-2</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="3"/>
-        <v>0.74155247630700982</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="7"/>
-        <v>2.630795177035981E-2</v>
-      </c>
+        <v>0.82764963303068928</v>
+      </c>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16">
       <c r="F20" s="5"/>
       <c r="G20" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>180M</v>
       </c>
       <c r="I20" s="7">
@@ -1713,168 +1300,133 @@
       </c>
       <c r="J20" s="8">
         <f>C14</f>
-        <v>2.1299999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="K20" s="9">
-        <v>2.1731936090144319E-2</v>
+        <v>1.4231757578673027E-2</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="3"/>
-        <v>0.72173436705352545</v>
-      </c>
-      <c r="M20" s="8">
-        <f>($L$2-L20)/SUM($L$6:L20)</f>
-        <v>2.1299999395783139E-2</v>
+        <v>0.80770826331443368</v>
+      </c>
+      <c r="M20" s="11">
+        <f>($L$2-L20)/SUM($L$2:L20)</f>
+        <v>1.0700000002290138E-2</v>
       </c>
       <c r="N20" s="8">
         <f>(M20-J20)*1000000</f>
-        <v>-6.042168605724374E-4</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="P20" s="2">
-        <f t="shared" si="7"/>
-        <v>2.7082856514932769E-2</v>
-      </c>
+        <v>2.2901385648976813E-6</v>
+      </c>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16">
       <c r="F21" s="3"/>
       <c r="G21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>192M</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="7">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="4">
         <f>FORECAST(I21,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>2.2086421007750261E-2</v>
+        <v>1.4474843879015455E-2</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="3"/>
-        <v>0.70222335390233004</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="7"/>
-        <v>2.7404014536827601E-2</v>
-      </c>
+        <v>0.79320243200189622</v>
+      </c>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16">
       <c r="F22" s="5"/>
       <c r="G22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>204</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>204M</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="7">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="4">
         <f>FORECAST(I22,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>2.2440905925356205E-2</v>
+        <v>1.4717930179357882E-2</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="3"/>
-        <v>0.68275556718612218</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="7"/>
-        <v>2.8122955899915012E-2</v>
-      </c>
+        <v>0.77857849891836128</v>
+      </c>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16">
       <c r="F23" s="3"/>
       <c r="G23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>216</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>216M</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="7">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="4">
         <f>FORECAST(I23,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>2.2795390842962147E-2</v>
+        <v>1.4961016479700308E-2</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="3"/>
-        <v>0.66335702039935218</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" si="7"/>
-        <v>2.8842407151468338E-2</v>
-      </c>
+        <v>0.76385272646302882</v>
+      </c>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16">
       <c r="F24" s="5"/>
       <c r="G24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>228</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>228M</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="7">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="4">
         <f>FORECAST(I24,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>2.3149875760568088E-2</v>
+        <v>1.5204102780042736E-2</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="3"/>
-        <v>0.64405285189509964</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="7"/>
-        <v>2.9562368653111515E-2</v>
-      </c>
+        <v>0.74904122047064492</v>
+      </c>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16">
       <c r="F25" s="3"/>
       <c r="G25" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="H25" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>240M</v>
       </c>
       <c r="I25" s="7">
@@ -1883,31 +1435,24 @@
       </c>
       <c r="J25" s="8">
         <f>C15</f>
-        <v>2.29E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="K25" s="9">
-        <v>2.3504360678174029E-2</v>
+        <v>1.5447189080385164E-2</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="3"/>
-        <v>0.62486727950930343</v>
-      </c>
-      <c r="M25" s="8">
-        <f>($L$2-L25)/SUM($L$6:L25)</f>
-        <v>2.2899999996108027E-2</v>
+        <v>0.73415990215977256</v>
+      </c>
+      <c r="M25" s="11">
+        <f>($L$2-L25)/SUM($L$2:L25)</f>
+        <v>1.2200000003148409E-2</v>
       </c>
       <c r="N25" s="8">
         <f>(M25-J25)*1000000</f>
-        <v>-3.8919735489972851E-6</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" si="7"/>
-        <v>3.0282840766724932E-2</v>
-      </c>
+        <v>3.1484086171484904E-6</v>
+      </c>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16">
       <c r="F26" s="5"/>
@@ -1916,135 +1461,107 @@
         <v>252</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>252M</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="7">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="4">
         <f>FORECAST(I26,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>2.3839638889691761E-2</v>
+        <v>1.5456789472496568E-2</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="3"/>
-        <v>0.60606802614885413</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" si="7"/>
-        <v>3.0593478853575252E-2</v>
-      </c>
+        <v>0.72276056988148274</v>
+      </c>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16">
       <c r="F27" s="3"/>
       <c r="G27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>264</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>264M</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="7">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="4">
         <f>FORECAST(I27,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>2.4174917101209489E-2</v>
+        <v>1.5466389864607973E-2</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="3"/>
-        <v>0.5874403080025028</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" si="7"/>
-        <v>3.1275592898351495E-2</v>
-      </c>
+        <v>0.71152457356326371</v>
+      </c>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16">
       <c r="F28" s="5"/>
       <c r="G28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>276</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>276M</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="7">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="4">
         <f>FORECAST(I28,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>2.4510195312727221E-2</v>
+        <v>1.5475990256719375E-2</v>
       </c>
       <c r="L28" s="10">
         <f t="shared" si="3"/>
-        <v>0.56900344258730706</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="7"/>
-        <v>3.1958164492471249E-2</v>
-      </c>
+        <v>0.70044980211509733</v>
+      </c>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16">
       <c r="F29" s="3"/>
       <c r="G29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>288</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>288M</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="7">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="4">
         <f>FORECAST(I29,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>2.4845473524244953E-2</v>
+        <v>1.548559064883078E-2</v>
       </c>
       <c r="L29" s="10">
         <f t="shared" si="3"/>
-        <v>0.55077576971998743</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" si="7"/>
-        <v>3.2641193942849332E-2</v>
-      </c>
+        <v>0.68953416807124179</v>
+      </c>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16">
       <c r="F30" s="5"/>
       <c r="G30" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>300M</v>
       </c>
       <c r="I30" s="7">
@@ -2053,168 +1570,133 @@
       </c>
       <c r="J30" s="8">
         <f>C16</f>
-        <v>2.4299999999999999E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="K30" s="9">
-        <v>2.5180751735762685E-2</v>
+        <v>1.5495191040942184E-2</v>
       </c>
       <c r="L30" s="7">
         <f t="shared" si="3"/>
-        <v>0.53277463380407075</v>
-      </c>
-      <c r="M30" s="8">
-        <f>($L$2-L30)/SUM($L$6:L30)</f>
-        <v>2.4299999998402586E-2</v>
+        <v>0.67877560738159659</v>
+      </c>
+      <c r="M30" s="11">
+        <f>($L$2-L30)/SUM($L$2:L30)</f>
+        <v>1.2700000681164995E-2</v>
       </c>
       <c r="N30" s="8">
         <f>(M30-J30)*1000000</f>
-        <v>-1.5974131739593389E-6</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="P30" s="2">
-        <f t="shared" si="7"/>
-        <v>3.3324681556607741E-2</v>
-      </c>
+        <v>6.811649959359567E-4</v>
+      </c>
+      <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16">
       <c r="F31" s="3"/>
       <c r="G31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>312</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>312M</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="7">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="4">
         <f>FORECAST(I31,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>2.5552138862978316E-2</v>
+        <v>1.5428069097490334E-2</v>
       </c>
       <c r="L31" s="10">
         <f t="shared" si="3"/>
-        <v>0.5145329813049514</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" si="7"/>
-        <v>3.4967178980084106E-2</v>
-      </c>
+        <v>0.66950654770937557</v>
+      </c>
+      <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16">
       <c r="F32" s="5"/>
       <c r="G32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>324M</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="7">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="4">
         <f>FORECAST(I32,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>2.592352599019395E-2</v>
+        <v>1.5360947154038481E-2</v>
       </c>
       <c r="L32" s="10">
         <f t="shared" si="3"/>
-        <v>0.4965469448265179</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="P32" s="2">
-        <f t="shared" si="7"/>
-        <v>3.5726032758660736E-2</v>
-      </c>
+        <v>0.66045271800816774</v>
+      </c>
+      <c r="P32" s="2"/>
     </row>
     <row r="33" spans="6:16">
       <c r="F33" s="3"/>
       <c r="G33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>336</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>336M</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="7">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="4">
         <f>FORECAST(I33,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>2.6294913117409585E-2</v>
+        <v>1.529382521058663E-2</v>
       </c>
       <c r="L33" s="10">
         <f t="shared" si="3"/>
-        <v>0.47883383142930008</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="P33" s="2">
-        <f t="shared" si="7"/>
-        <v>3.6485450403673868E-2</v>
-      </c>
+        <v>0.65160879312495057</v>
+      </c>
+      <c r="P33" s="2"/>
     </row>
     <row r="34" spans="6:16">
       <c r="F34" s="5"/>
       <c r="G34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>348</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>348M</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="7">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="4">
         <f>FORECAST(I34,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>2.6666300244625216E-2</v>
+        <v>1.5226703267134777E-2</v>
       </c>
       <c r="L34" s="10">
         <f t="shared" si="3"/>
-        <v>0.46140973999596541</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="7"/>
-        <v>3.7245432334104302E-2</v>
-      </c>
+        <v>0.6429696035410547</v>
+      </c>
+      <c r="P34" s="2"/>
     </row>
     <row r="35" spans="6:16">
       <c r="F35" s="3"/>
       <c r="G35" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="H35" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>360M</v>
       </c>
       <c r="I35" s="7">
@@ -2223,31 +1705,24 @@
       </c>
       <c r="J35" s="8">
         <f>C17</f>
-        <v>2.5700000000000001E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="K35" s="9">
-        <v>2.7037687371840848E-2</v>
+        <v>1.5159581323682924E-2</v>
       </c>
       <c r="L35" s="7">
         <f t="shared" si="3"/>
-        <v>0.44428955737257286</v>
-      </c>
-      <c r="M35" s="8">
-        <f>($L$2-L35)/SUM($L$6:L35)</f>
-        <v>2.5699999960454641E-2</v>
+        <v>0.63453013053046314</v>
+      </c>
+      <c r="M35" s="11">
+        <f>($L$2-L35)/SUM($L$2:L35)</f>
+        <v>1.2799999997451402E-2</v>
       </c>
       <c r="N35" s="8">
         <f>(M35-J35)*1000000</f>
-        <v>-3.9545360042136934E-5</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="7"/>
-        <v>3.800597896924468E-2</v>
-      </c>
+        <v>-2.5485984850304177E-6</v>
+      </c>
+      <c r="P35" s="2"/>
     </row>
     <row r="36" spans="6:16">
       <c r="F36" s="5"/>
@@ -2436,13 +1911,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Derives_de_taux/xls/CalageCourbeDesTaux.xlsx
+++ b/Derives_de_taux/xls/CalageCourbeDesTaux.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>2D</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -170,6 +175,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -468,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -478,470 +484,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="I1" s="6" t="s">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:16">
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>-2.3E-3</v>
       </c>
       <c r="D2">
         <f>I2</f>
         <v>5.4794520547945206E-3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>VLOOKUP(D2,$I$2:$K$35,3,FALSE)</f>
         <v>-2.3319593430685586E-3</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f>2/365</f>
         <v>5.4794520547945206E-3</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <f t="shared" ref="J2:J10" si="0">C2</f>
         <v>-2.3E-3</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-2.3319593430685586E-3</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <f>EXP(-I2*K2)</f>
         <v>1.0000127779410513</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <f>(1/L2-1)/I2*360/365</f>
         <v>-2.2999999999551157E-3</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <f t="shared" ref="N2:N10" si="1">(M2-J2)*1000000</f>
         <v>4.4884235217423907E-8</v>
       </c>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="11">
         <v>-2.3E-3</v>
       </c>
       <c r="D3">
         <f>I3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E17" si="2">VLOOKUP(D3,$I$2:$K$35,3,FALSE)</f>
         <v>-2.3321579862787402E-3</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <f t="shared" si="0"/>
         <v>-2.3E-3</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-2.3321579862787402E-3</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <f t="shared" ref="L3:L35" si="3">EXP(-(I3+$I$2)*K3)</f>
         <v>1.0002071468986831</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f>($L$2/L3-1)/I3*360/365</f>
         <v>-2.2999999921884517E-3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <f t="shared" si="1"/>
         <v>7.8115482832208372E-6</v>
       </c>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
         <v>-1.6000000000000001E-3</v>
       </c>
       <c r="D4">
         <f>I4</f>
         <v>0.25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="2"/>
         <v>-1.6377664481033417E-3</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="7">
+      <c r="F4" s="2"/>
+      <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="6" t="str">
         <f>G4&amp;"M"</f>
         <v>3M</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f t="shared" si="0"/>
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>-1.6377664481033417E-3</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <f t="shared" si="3"/>
         <v>1.0004185032228037</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f>($L$2/L4-1)/I4*360/365</f>
         <v>-1.5999999995654681E-3</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f t="shared" si="1"/>
         <v>4.3453196769960289E-7</v>
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="11">
         <v>-1E-3</v>
       </c>
       <c r="D5">
         <f>I5</f>
         <v>0.5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="2"/>
         <v>-1.0284312082783202E-3</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7">
+      <c r="F5" s="2"/>
+      <c r="G5" s="6">
         <f>G4+3</f>
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="str">
+      <c r="H5" s="6" t="str">
         <f t="shared" ref="H5" si="4">G5&amp;"M"</f>
         <v>6M</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <f t="shared" si="0"/>
         <v>-1E-3</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-1.0284312082783202E-3</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <f t="shared" si="3"/>
         <v>1.000519985989504</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f>($L$2/L5-1)/I5*360/365</f>
         <v>-9.9999999999932413E-4</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <f t="shared" si="1"/>
         <v>6.7589163432746346E-10</v>
       </c>
-      <c r="P5" s="6"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="11">
         <v>-8.9999999999999998E-4</v>
       </c>
       <c r="D6">
         <f>I6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="2"/>
         <v>-9.2064978459862625E-4</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7">
+      <c r="F6" s="4"/>
+      <c r="G6" s="6">
         <f>G5+6</f>
         <v>12</v>
       </c>
-      <c r="H6" s="7" t="str">
+      <c r="H6" s="6" t="str">
         <f>G6&amp;"M"</f>
         <v>12M</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" ref="I6:I35" si="5">G6/12</f>
         <v>1</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>-9.2064978459862625E-4</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f t="shared" si="3"/>
         <v>1.0009261230282884</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f>($L$2/L6-1)/I6*360/365</f>
         <v>-8.9999999997425017E-4</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <f t="shared" si="1"/>
         <v>2.574980159653073E-8</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="11">
         <v>-1.1000000000000001E-3</v>
       </c>
       <c r="D7">
         <f>VALUE(LEFT(B7,LEN(B7)-1))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
-        <v>-3.2912434341054986E-3</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7">
+        <v>-1.1038668617741555E-3</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6">
         <f>G6+12</f>
         <v>24</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="H7" s="6" t="str">
         <f>G7&amp;"M"</f>
         <v>24M</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>-1.1000000000000001E-3</v>
       </c>
-      <c r="K7" s="8">
-        <v>-3.2912434341054986E-3</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="3"/>
-        <v>1.0066223525246056</v>
-      </c>
-      <c r="M7" s="11">
-        <f>($L$2-L7)/SUM($L$2:L7)</f>
-        <v>-1.0999995015548093E-3</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="K7" s="7">
+        <v>-1.1038668617741555E-3</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0022162345343788</v>
+      </c>
+      <c r="M7" s="10">
+        <f>($L$2-L7)/SUM($L$6:L7)</f>
+        <v>-1.1000000000042996E-3</v>
+      </c>
+      <c r="N7" s="7">
         <f t="shared" si="1"/>
-        <v>4.9844519072091142E-4</v>
-      </c>
-      <c r="P7" s="2"/>
+        <v>-4.2995121352085164E-9</v>
+      </c>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="11">
         <v>-1.1999999999999999E-3</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D17" si="6">VALUE(LEFT(B8,LEN(B8)-1))</f>
         <v>3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7942244646316098E-3</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7">
+        <v>-1.2025883891720235E-3</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6">
         <f t="shared" ref="G8:G35" si="7">G7+12</f>
         <v>36</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="6" t="str">
         <f t="shared" ref="H8:H35" si="8">G8&amp;"M"</f>
         <v>36M</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <f t="shared" si="0"/>
         <v>-1.1999999999999999E-3</v>
       </c>
-      <c r="K8" s="8">
-        <v>-2.7942244646316098E-3</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="3"/>
-        <v>1.008433346202795</v>
-      </c>
-      <c r="M8" s="11">
-        <f>($L$2-L8)/SUM($L$2:L8)</f>
-        <v>-1.1999999969751892E-3</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="K8" s="7">
+        <v>-1.2025883891720235E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="3"/>
+        <v>1.003620894349365</v>
+      </c>
+      <c r="M8" s="10">
+        <f>($L$2-L8)/SUM($L$6:L8)</f>
+        <v>-1.2000001682936866E-3</v>
+      </c>
+      <c r="N8" s="7">
         <f t="shared" si="1"/>
-        <v>3.0248106536873154E-6</v>
-      </c>
-      <c r="P8" s="2"/>
+        <v>-1.682936867121454E-4</v>
+      </c>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="11">
         <v>-2.9999999999999997E-4</v>
       </c>
       <c r="D9">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>-6.0310516940650276E-4</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="7">
+        <v>-3.0319310617188617E-4</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="H9" s="6" t="str">
         <f t="shared" si="8"/>
         <v>48M</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="K9" s="8">
-        <v>-6.0310516940650276E-4</v>
-      </c>
-      <c r="L9" s="7">
-        <f t="shared" si="3"/>
-        <v>1.0024186455790078</v>
-      </c>
-      <c r="M9" s="11">
-        <f>($L$2-L9)/SUM($L$2:L9)</f>
-        <v>-2.9999999670063664E-4</v>
-      </c>
-      <c r="N9" s="8">
+      <c r="K9" s="7">
+        <v>-3.0319310617188617E-4</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0012151714800595</v>
+      </c>
+      <c r="M9" s="10">
+        <f>($L$2-L9)/SUM($L$6:L9)</f>
+        <v>-3.000000029916747E-4</v>
+      </c>
+      <c r="N9" s="7">
         <f t="shared" si="1"/>
-        <v>3.2993633324561455E-6</v>
-      </c>
-      <c r="P9" s="2"/>
+        <v>-2.9916747247907272E-6</v>
+      </c>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="11">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="D10">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>1.4430457071467966E-3</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7">
+        <v>7.9880372295564658E-4</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="H10" s="6" t="str">
         <f t="shared" si="8"/>
         <v>60M</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f t="shared" si="0"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="K10" s="8">
-        <v>1.4430457071467966E-3</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" si="3"/>
-        <v>0.99280288851235754</v>
-      </c>
-      <c r="M10" s="11">
-        <f>($L$2-L10)/SUM($L$2:L10)</f>
-        <v>8.0000000141743533E-4</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="K10" s="7">
+        <v>7.9880372295564658E-4</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.99600958731909783</v>
+      </c>
+      <c r="M10" s="10">
+        <f>($L$2-L10)/SUM($L$6:L10)</f>
+        <v>8.0000004264288221E-4</v>
+      </c>
+      <c r="N10" s="7">
         <f t="shared" si="1"/>
-        <v>1.4174352880660934E-6</v>
-      </c>
-      <c r="P10" s="2"/>
+        <v>4.2642882172420904E-5</v>
+      </c>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="11">
         <v>3.3E-3</v>
       </c>
       <c r="D11">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>5.2547975878970135E-3</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>3.3191497736828144E-3</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11">
         <f t="shared" si="7"/>
         <v>72</v>
@@ -950,86 +962,86 @@
         <f t="shared" si="8"/>
         <v>72M</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4">
+      <c r="J11" s="2"/>
+      <c r="K11" s="3">
         <f>FORECAST(I11,$E$10:$E$11,$D$10:$D$11)</f>
-        <v>3.3489216475219054E-3</v>
-      </c>
-      <c r="L11" s="10">
-        <f t="shared" si="3"/>
-        <v>0.98008901467566412</v>
-      </c>
-      <c r="P11" s="2"/>
+        <v>2.0589767483192309E-3</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.98771099169420684</v>
+      </c>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="11">
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="D12">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>9.8008287398685268E-3</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7">
+        <v>6.9032105759994078E-3</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="6" t="str">
         <f t="shared" si="8"/>
         <v>84M</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f>C11</f>
         <v>3.3E-3</v>
       </c>
-      <c r="K12" s="9">
-        <v>5.2547975878970135E-3</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="3"/>
-        <v>0.96385696057568315</v>
-      </c>
-      <c r="M12" s="11">
-        <f>($L$2-L12)/SUM($L$2:L12)</f>
-        <v>3.3000001648704732E-3</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="K12" s="8">
+        <v>3.3191497736828144E-3</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.97701601453054188</v>
+      </c>
+      <c r="M12" s="10">
+        <f>($L$2-L12)/SUM($L$6:L12)</f>
+        <v>3.3000005531322167E-3</v>
+      </c>
+      <c r="N12" s="7">
         <f>(M12-J12)*1000000</f>
-        <v>1.6487047317659265E-4</v>
-      </c>
-      <c r="P12" s="2"/>
+        <v>5.5313221667893653E-4</v>
+      </c>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="11">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="D13">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>1.2056060765214821E-2</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>8.8858185046402534E-3</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -1038,37 +1050,37 @@
         <f t="shared" si="8"/>
         <v>96M</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4">
+      <c r="J13" s="2"/>
+      <c r="K13" s="3">
         <f>FORECAST(I13,$E$11:$E$12,$D$11:$D$12)</f>
-        <v>6.7701413052208507E-3</v>
-      </c>
-      <c r="L13" s="10">
-        <f t="shared" si="3"/>
-        <v>0.94724431838972778</v>
-      </c>
-      <c r="P13" s="2"/>
+        <v>4.5138367077883464E-3</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.96450966397404869</v>
+      </c>
+      <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="11">
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="D14">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>1.4231757578673027E-2</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>1.1005574737469513E-2</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -1077,88 +1089,88 @@
         <f t="shared" si="8"/>
         <v>108M</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="4">
+      <c r="J14" s="7"/>
+      <c r="K14" s="3">
         <f>FORECAST(I14,$E$11:$E$12,$D$11:$D$12)</f>
-        <v>8.2854850225446888E-3</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="3"/>
-        <v>0.92810095432855577</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-      <c r="P14" s="2"/>
+        <v>5.7085236418938775E-3</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="3"/>
+        <v>0.9498910431761437</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="11">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="D15">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>1.5447189080385164E-2</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="7">
+        <v>1.2595383847887772E-2</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="H15" s="7" t="str">
+      <c r="H15" s="6" t="str">
         <f t="shared" si="8"/>
         <v>120M</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f>C12</f>
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="K15" s="9">
-        <v>9.8008287398685268E-3</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="3"/>
-        <v>0.90659270181372509</v>
-      </c>
-      <c r="M15" s="11">
-        <f>($L$2-L15)/SUM($L$2:L15)</f>
-        <v>6.8000003809427778E-3</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="K15" s="8">
+        <v>6.9032105759994078E-3</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="3"/>
+        <v>0.93326141335899182</v>
+      </c>
+      <c r="M15" s="10">
+        <f>($L$2-L15)/SUM($L$6:L15)</f>
+        <v>6.800000004831986E-3</v>
+      </c>
+      <c r="N15" s="7">
         <f>(M15-J15)*1000000</f>
-        <v>3.8094277819006317E-4</v>
-      </c>
-      <c r="P15" s="2"/>
+        <v>4.8319863735213353E-6</v>
+      </c>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="11">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="D16">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>1.5495191040942184E-2</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>1.3085836391550323E-2</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16">
         <f t="shared" si="7"/>
         <v>132</v>
@@ -1167,72 +1179,72 @@
         <f t="shared" si="8"/>
         <v>132M</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4">
+      <c r="J16" s="2"/>
+      <c r="K16" s="3">
         <f>FORECAST(I16,$E$12:$E$13,$D$12:$D$13)</f>
-        <v>1.0928444752541674E-2</v>
-      </c>
-      <c r="L16" s="10">
-        <f t="shared" si="3"/>
-        <v>0.88667854072681329</v>
-      </c>
-      <c r="P16" s="2"/>
+        <v>7.8945145403198306E-3</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="3"/>
+        <v>0.91678442870983667</v>
+      </c>
+      <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="11">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>1.5159581323682924E-2</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7">
+        <v>1.3129093662368255E-2</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="H17" s="7" t="str">
+      <c r="H17" s="6" t="str">
         <f t="shared" si="8"/>
         <v>144M</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f>C13</f>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="K17" s="9">
-        <v>1.2056060765214821E-2</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="3"/>
-        <v>0.86524827527914283</v>
-      </c>
-      <c r="M17" s="11">
-        <f>($L$2-L17)/SUM($L$2:L17)</f>
-        <v>8.7000001033829197E-3</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="K17" s="8">
+        <v>8.8858185046402534E-3</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="3"/>
+        <v>0.89881458512463341</v>
+      </c>
+      <c r="M17" s="10">
+        <f>($L$2-L17)/SUM($L$6:L17)</f>
+        <v>8.7000000258155089E-3</v>
+      </c>
+      <c r="N17" s="7">
         <f>(M17-J17)*1000000</f>
-        <v>1.0338292028011509E-4</v>
-      </c>
-      <c r="P17" s="2"/>
+        <v>2.581550945235378E-5</v>
+      </c>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18">
         <f t="shared" si="7"/>
         <v>156</v>
@@ -1241,26 +1253,26 @@
         <f t="shared" si="8"/>
         <v>156M</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4">
+      <c r="J18" s="2"/>
+      <c r="K18" s="3">
         <f>FORECAST(I18,$E$13:$E$14,$D$13:$D$14)</f>
-        <v>1.2781293036367556E-2</v>
-      </c>
-      <c r="L18" s="10">
-        <f t="shared" si="3"/>
-        <v>0.84685410866350586</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
-      <c r="P18" s="2"/>
+        <v>9.5924039155833394E-3</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="3"/>
+        <v>0.88271418946007263</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19">
         <f t="shared" si="7"/>
         <v>168</v>
@@ -1269,58 +1281,58 @@
         <f t="shared" si="8"/>
         <v>168M</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4">
+      <c r="J19" s="2"/>
+      <c r="K19" s="3">
         <f>FORECAST(I19,$E$13:$E$14,$D$13:$D$14)</f>
-        <v>1.3506525307520291E-2</v>
-      </c>
-      <c r="L19" s="10">
-        <f t="shared" si="3"/>
-        <v>0.82764963303068928</v>
-      </c>
-      <c r="P19" s="2"/>
+        <v>1.0298989326526425E-2</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.86567798325288459</v>
+      </c>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="F20" s="5"/>
-      <c r="G20" s="7">
+      <c r="F20" s="4"/>
+      <c r="G20" s="6">
         <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="H20" s="7" t="str">
+      <c r="H20" s="6" t="str">
         <f t="shared" si="8"/>
         <v>180M</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <f>C14</f>
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="K20" s="9">
-        <v>1.4231757578673027E-2</v>
-      </c>
-      <c r="L20" s="7">
-        <f t="shared" si="3"/>
-        <v>0.80770826331443368</v>
-      </c>
-      <c r="M20" s="11">
-        <f>($L$2-L20)/SUM($L$2:L20)</f>
-        <v>1.0700000002290138E-2</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="K20" s="8">
+        <v>1.1005574737469513E-2</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="3"/>
+        <v>0.84777167927525643</v>
+      </c>
+      <c r="M20" s="10">
+        <f>($L$2-L20)/SUM($L$6:L20)</f>
+        <v>1.0700000044336737E-2</v>
+      </c>
+      <c r="N20" s="7">
         <f>(M20-J20)*1000000</f>
-        <v>2.2901385648976813E-6</v>
-      </c>
-      <c r="P20" s="2"/>
+        <v>4.4336737406447391E-5</v>
+      </c>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="F21" s="3"/>
+      <c r="F21" s="2"/>
       <c r="G21">
         <f t="shared" si="7"/>
         <v>192</v>
@@ -1329,23 +1341,23 @@
         <f t="shared" si="8"/>
         <v>192M</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4">
+      <c r="J21" s="2"/>
+      <c r="K21" s="3">
         <f>FORECAST(I21,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>1.4474843879015455E-2</v>
-      </c>
-      <c r="L21" s="10">
-        <f t="shared" si="3"/>
-        <v>0.79320243200189622</v>
-      </c>
-      <c r="P21" s="2"/>
+        <v>1.1323536559553165E-2</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.83423625970041981</v>
+      </c>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="G22">
         <f t="shared" si="7"/>
         <v>204</v>
@@ -1354,23 +1366,23 @@
         <f t="shared" si="8"/>
         <v>204M</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4">
+      <c r="J22" s="2"/>
+      <c r="K22" s="3">
         <f>FORECAST(I22,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>1.4717930179357882E-2</v>
-      </c>
-      <c r="L22" s="10">
-        <f t="shared" si="3"/>
-        <v>0.77857849891836128</v>
-      </c>
-      <c r="P22" s="2"/>
+        <v>1.1641498381636816E-2</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.8203950704476789</v>
+      </c>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="F23" s="3"/>
+      <c r="F23" s="2"/>
       <c r="G23">
         <f t="shared" si="7"/>
         <v>216</v>
@@ -1379,23 +1391,23 @@
         <f t="shared" si="8"/>
         <v>216M</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4">
+      <c r="J23" s="2"/>
+      <c r="K23" s="3">
         <f>FORECAST(I23,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>1.4961016479700308E-2</v>
-      </c>
-      <c r="L23" s="10">
-        <f t="shared" si="3"/>
-        <v>0.76385272646302882</v>
-      </c>
-      <c r="P23" s="2"/>
+        <v>1.1959460203720469E-2</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.80627063697170653</v>
+      </c>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="F24" s="5"/>
+      <c r="F24" s="4"/>
       <c r="G24">
         <f t="shared" si="7"/>
         <v>228</v>
@@ -1404,58 +1416,58 @@
         <f t="shared" si="8"/>
         <v>228M</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4">
+      <c r="J24" s="2"/>
+      <c r="K24" s="3">
         <f>FORECAST(I24,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>1.5204102780042736E-2</v>
-      </c>
-      <c r="L24" s="10">
-        <f t="shared" si="3"/>
-        <v>0.74904122047064492</v>
-      </c>
-      <c r="P24" s="2"/>
+        <v>1.2277422025804119E-2</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="3"/>
+        <v>0.79188563960190994</v>
+      </c>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="F25" s="3"/>
-      <c r="G25" s="7">
+      <c r="F25" s="2"/>
+      <c r="G25" s="6">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="H25" s="7" t="str">
+      <c r="H25" s="6" t="str">
         <f t="shared" si="8"/>
         <v>240M</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <f>C15</f>
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="K25" s="9">
-        <v>1.5447189080385164E-2</v>
-      </c>
-      <c r="L25" s="7">
-        <f t="shared" si="3"/>
-        <v>0.73415990215977256</v>
-      </c>
-      <c r="M25" s="11">
-        <f>($L$2-L25)/SUM($L$2:L25)</f>
-        <v>1.2200000003148409E-2</v>
-      </c>
-      <c r="N25" s="8">
+      <c r="K25" s="8">
+        <v>1.2595383847887772E-2</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.77726285370997006</v>
+      </c>
+      <c r="M25" s="10">
+        <f>($L$2-L25)/SUM($L$6:L25)</f>
+        <v>1.2200000031435062E-2</v>
+      </c>
+      <c r="N25" s="7">
         <f>(M25-J25)*1000000</f>
-        <v>3.1484086171484904E-6</v>
-      </c>
-      <c r="P25" s="2"/>
+        <v>3.1435061151330324E-5</v>
+      </c>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
       <c r="G26">
         <f>G25+12</f>
         <v>252</v>
@@ -1464,23 +1476,23 @@
         <f t="shared" si="8"/>
         <v>252M</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="4">
+      <c r="J26" s="2"/>
+      <c r="K26" s="3">
         <f>FORECAST(I26,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>1.5456789472496568E-2</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="3"/>
-        <v>0.72276056988148274</v>
-      </c>
-      <c r="P26" s="2"/>
+        <v>1.2693474356620282E-2</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.76595449671436133</v>
+      </c>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="F27" s="3"/>
+      <c r="F27" s="2"/>
       <c r="G27">
         <f t="shared" si="7"/>
         <v>264</v>
@@ -1489,23 +1501,23 @@
         <f t="shared" si="8"/>
         <v>264M</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4">
+      <c r="J27" s="2"/>
+      <c r="K27" s="3">
         <f>FORECAST(I27,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>1.5466389864607973E-2</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.71152457356326371</v>
-      </c>
-      <c r="P27" s="2"/>
+        <v>1.2791564865352793E-2</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.75466259941900404</v>
+      </c>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="F28" s="5"/>
+      <c r="F28" s="4"/>
       <c r="G28">
         <f t="shared" si="7"/>
         <v>276</v>
@@ -1514,23 +1526,23 @@
         <f t="shared" si="8"/>
         <v>276M</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4">
+      <c r="J28" s="2"/>
+      <c r="K28" s="3">
         <f>FORECAST(I28,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>1.5475990256719375E-2</v>
-      </c>
-      <c r="L28" s="10">
-        <f t="shared" si="3"/>
-        <v>0.70044980211509733</v>
-      </c>
-      <c r="P28" s="2"/>
+        <v>1.2889655374085303E-2</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="3"/>
+        <v>0.74339131659335478</v>
+      </c>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="F29" s="3"/>
+      <c r="F29" s="2"/>
       <c r="G29">
         <f t="shared" si="7"/>
         <v>288</v>
@@ -1539,58 +1551,58 @@
         <f t="shared" si="8"/>
         <v>288M</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="4">
+      <c r="J29" s="2"/>
+      <c r="K29" s="3">
         <f>FORECAST(I29,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>1.548559064883078E-2</v>
-      </c>
-      <c r="L29" s="10">
-        <f t="shared" si="3"/>
-        <v>0.68953416807124179</v>
-      </c>
-      <c r="P29" s="2"/>
+        <v>1.2987745882817814E-2</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.7321447293167922</v>
+      </c>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="F30" s="5"/>
-      <c r="G30" s="7">
+      <c r="F30" s="4"/>
+      <c r="G30" s="6">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="H30" s="7" t="str">
+      <c r="H30" s="6" t="str">
         <f t="shared" si="8"/>
         <v>300M</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <f>C16</f>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K30" s="9">
-        <v>1.5495191040942184E-2</v>
-      </c>
-      <c r="L30" s="7">
-        <f t="shared" si="3"/>
-        <v>0.67877560738159659</v>
-      </c>
-      <c r="M30" s="11">
-        <f>($L$2-L30)/SUM($L$2:L30)</f>
-        <v>1.2700000681164995E-2</v>
-      </c>
-      <c r="N30" s="8">
+      <c r="K30" s="8">
+        <v>1.3085836391550323E-2</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="3"/>
+        <v>0.72092684290106557</v>
+      </c>
+      <c r="M30" s="10">
+        <f>($L$2-L30)/SUM($L$6:L30)</f>
+        <v>1.2700000015572322E-2</v>
+      </c>
+      <c r="N30" s="7">
         <f>(M30-J30)*1000000</f>
-        <v>6.811649959359567E-4</v>
-      </c>
-      <c r="P30" s="2"/>
+        <v>1.5572322945023309E-5</v>
+      </c>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="F31" s="3"/>
+      <c r="F31" s="2"/>
       <c r="G31">
         <f t="shared" si="7"/>
         <v>312</v>
@@ -1599,23 +1611,23 @@
         <f t="shared" si="8"/>
         <v>312M</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4">
+      <c r="J31" s="2"/>
+      <c r="K31" s="3">
         <f>FORECAST(I31,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>1.5428069097490334E-2</v>
-      </c>
-      <c r="L31" s="10">
-        <f t="shared" si="3"/>
-        <v>0.66950654770937557</v>
-      </c>
-      <c r="P31" s="2"/>
+        <v>1.3094487845713911E-2</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="3"/>
+        <v>0.71139429805288656</v>
+      </c>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="F32" s="5"/>
+      <c r="F32" s="4"/>
       <c r="G32">
         <f t="shared" si="7"/>
         <v>324</v>
@@ -1624,23 +1636,23 @@
         <f t="shared" si="8"/>
         <v>324M</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4">
+      <c r="J32" s="2"/>
+      <c r="K32" s="3">
         <f>FORECAST(I32,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>1.5360947154038481E-2</v>
-      </c>
-      <c r="L32" s="10">
-        <f t="shared" si="3"/>
-        <v>0.66045271800816774</v>
-      </c>
-      <c r="P32" s="2"/>
+        <v>1.3103139299877496E-2</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="3"/>
+        <v>0.70197565213916802</v>
+      </c>
+      <c r="P32" s="1"/>
     </row>
     <row r="33" spans="6:16">
-      <c r="F33" s="3"/>
+      <c r="F33" s="2"/>
       <c r="G33">
         <f t="shared" si="7"/>
         <v>336</v>
@@ -1649,23 +1661,23 @@
         <f t="shared" si="8"/>
         <v>336M</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="4">
+      <c r="J33" s="2"/>
+      <c r="K33" s="3">
         <f>FORECAST(I33,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>1.529382521058663E-2</v>
-      </c>
-      <c r="L33" s="10">
-        <f t="shared" si="3"/>
-        <v>0.65160879312495057</v>
-      </c>
-      <c r="P33" s="2"/>
+        <v>1.3111790754041083E-2</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="3"/>
+        <v>0.69266972095183432</v>
+      </c>
+      <c r="P33" s="1"/>
     </row>
     <row r="34" spans="6:16">
-      <c r="F34" s="5"/>
+      <c r="F34" s="4"/>
       <c r="G34">
         <f t="shared" si="7"/>
         <v>348</v>
@@ -1674,239 +1686,239 @@
         <f t="shared" si="8"/>
         <v>348M</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4">
+      <c r="J34" s="2"/>
+      <c r="K34" s="3">
         <f>FORECAST(I34,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>1.5226703267134777E-2</v>
-      </c>
-      <c r="L34" s="10">
-        <f t="shared" si="3"/>
-        <v>0.6429696035410547</v>
-      </c>
-      <c r="P34" s="2"/>
+        <v>1.3120442208204668E-2</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68347533015943385</v>
+      </c>
+      <c r="P34" s="1"/>
     </row>
     <row r="35" spans="6:16">
-      <c r="F35" s="3"/>
-      <c r="G35" s="7">
+      <c r="F35" s="2"/>
+      <c r="G35" s="6">
         <f t="shared" si="7"/>
         <v>360</v>
       </c>
-      <c r="H35" s="7" t="str">
+      <c r="H35" s="6" t="str">
         <f t="shared" si="8"/>
         <v>360M</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="7">
         <f>C17</f>
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="K35" s="9">
-        <v>1.5159581323682924E-2</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="3"/>
-        <v>0.63453013053046314</v>
-      </c>
-      <c r="M35" s="11">
-        <f>($L$2-L35)/SUM($L$2:L35)</f>
-        <v>1.2799999997451402E-2</v>
-      </c>
-      <c r="N35" s="8">
+      <c r="K35" s="8">
+        <v>1.3129093662368255E-2</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.6743913152569434</v>
+      </c>
+      <c r="M35" s="10">
+        <f>($L$2-L35)/SUM($L$6:L35)</f>
+        <v>1.2800000003517893E-2</v>
+      </c>
+      <c r="N35" s="7">
         <f>(M35-J35)*1000000</f>
-        <v>-2.5485984850304177E-6</v>
-      </c>
-      <c r="P35" s="2"/>
+        <v>3.5178925744672185E-6</v>
+      </c>
+      <c r="P35" s="1"/>
     </row>
     <row r="36" spans="6:16">
-      <c r="F36" s="5"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="6:16">
-      <c r="F37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="4"/>
+      <c r="F37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="6:16">
-      <c r="F38" s="5"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="6:16">
-      <c r="F39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="4"/>
+      <c r="F39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="6:16">
-      <c r="F40" s="5"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="6:16">
-      <c r="F41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="4"/>
+      <c r="F41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="6:16">
-      <c r="F42" s="5"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="6:16">
-      <c r="F43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="4"/>
+      <c r="F43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="6:16">
-      <c r="F44" s="5"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="6:16">
-      <c r="F45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="4"/>
+      <c r="F45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="6:16">
-      <c r="F46" s="5"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="6:16">
-      <c r="F47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4"/>
+      <c r="F47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="6:16">
-      <c r="F48" s="5"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="6:11">
-      <c r="F49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="4"/>
+      <c r="F49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="6:11">
-      <c r="F50" s="5"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="6:11">
-      <c r="F51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="4"/>
+      <c r="F51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="6:11">
-      <c r="F52" s="5"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="6:11">
-      <c r="F53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="4"/>
+      <c r="F53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="6:11">
-      <c r="F54" s="5"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="6:11">
-      <c r="F55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="4"/>
+      <c r="F55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="6:11">
-      <c r="F56" s="5"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="6:11">
-      <c r="F57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="4"/>
+      <c r="F57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="6:11">
-      <c r="F58" s="5"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="4"/>
+      <c r="F59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="5"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="4"/>
+      <c r="F61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="5"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="6:11">
-      <c r="F63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="4"/>
+      <c r="F63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="6:11">
-      <c r="F64" s="5"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="6:6">
-      <c r="F65" s="3"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="6:6">
-      <c r="F66" s="5"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="6:6">
-      <c r="F67" s="3"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="6:6">
-      <c r="F68" s="5"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="3"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="6:6">
-      <c r="F70" s="5"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="6:6">
-      <c r="F71" s="3"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="6:6">
-      <c r="F72" s="5"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="6:6">
-      <c r="F73" s="3"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="6:6">
-      <c r="F74" s="5"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="6:6">
-      <c r="F75" s="3"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="6:6">
-      <c r="F76" s="5"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="6:6">
-      <c r="F77" s="3"/>
+      <c r="F77" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
